--- a/data/graphs.xlsx
+++ b/data/graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\DanRafael\Desktop\ECE358\ECE358-L2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B551E59F-F729-4DB4-8344-6875F0EF4777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77923D25-4EC0-43F5-86B2-12CAEBBCD828}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="16440" xr2:uid="{A3E2A1E9-4184-42DE-96FD-8DEE4716C23F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="49">
   <si>
     <t>t</t>
   </si>
@@ -2562,6 +2562,1336 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F45B-416E-A68B-D2CC94ECD108}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="716713616"/>
+        <c:axId val="716714272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="716713616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="716714272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="716714272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Efficiency (Ttf/Tta)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="716713616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Efficiency versus nodes for different average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> arrival rates "a" (non-persistent case)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>a 7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$96:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$96:$E$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.99838300000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99568699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99718499999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99665099999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99454500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15AC-49FF-8DAF-15D53CDB2D2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>a 10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$106:$B$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$106:$E$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.99852700000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99833799999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.995699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99414499999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99394300000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-15AC-49FF-8DAF-15D53CDB2D2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>a 20</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$116:$B$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$116:$E$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.99912999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99812500000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99776399999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99717999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99648300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-15AC-49FF-8DAF-15D53CDB2D2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="716713616"/>
+        <c:axId val="716714272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="716713616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="716714272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="716714272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Efficiency (Ttf/Tta)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="716713616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Ttf/Tef versus nodes for different average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> arrival rates "a" (non-persistent case)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>a 7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$96:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$96:$I$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.11244800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7110499999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1376799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2138800000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3030800000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-544A-49D8-BE2D-51722CE38DB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>a 10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$106:$B$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$106:$I$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.5989099999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4820000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0061699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4632900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.53375E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-544A-49D8-BE2D-51722CE38DB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>a 20</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$116:$B$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$116:$I$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.31171E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5961499999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.76411E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.37004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.02703E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-544A-49D8-BE2D-51722CE38DB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8375,6 +9705,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -10244,6 +11654,1038 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15343,6 +17785,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1EC8901-4C9A-4350-807F-C67FB02B8F74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C9D8626-0A37-4105-A03A-119D393CEB68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15643,10 +18161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5E115A-6254-493B-B140-C9067D8B13CB}">
-  <dimension ref="B2:AJ75"/>
+  <dimension ref="B2:AJ145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="T49" workbookViewId="0">
+      <selection activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19959,6 +22477,2878 @@
         <v>0</v>
       </c>
     </row>
+    <row r="92" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" t="s">
+        <v>3</v>
+      </c>
+      <c r="F92" t="s">
+        <v>4</v>
+      </c>
+      <c r="G92" t="s">
+        <v>5</v>
+      </c>
+      <c r="H92" t="s">
+        <v>6</v>
+      </c>
+      <c r="I92" t="s">
+        <v>7</v>
+      </c>
+      <c r="J92" t="s">
+        <v>8</v>
+      </c>
+      <c r="K92" t="s">
+        <v>9</v>
+      </c>
+      <c r="L92" t="s">
+        <v>10</v>
+      </c>
+      <c r="M92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>2000</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>20</v>
+      </c>
+      <c r="E93">
+        <v>100</v>
+      </c>
+      <c r="F93">
+        <v>20</v>
+      </c>
+      <c r="G93">
+        <v>7</v>
+      </c>
+      <c r="H93" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="I93">
+        <v>1500</v>
+      </c>
+      <c r="J93">
+        <v>10</v>
+      </c>
+      <c r="K93" s="1">
+        <v>200000000</v>
+      </c>
+      <c r="L93" t="s">
+        <v>12</v>
+      </c>
+      <c r="M93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" t="s">
+        <v>20</v>
+      </c>
+      <c r="J95" t="s">
+        <v>21</v>
+      </c>
+      <c r="K95" t="s">
+        <v>22</v>
+      </c>
+      <c r="L95" t="s">
+        <v>23</v>
+      </c>
+      <c r="M95" t="s">
+        <v>24</v>
+      </c>
+      <c r="N95" t="s">
+        <v>25</v>
+      </c>
+      <c r="O95" t="s">
+        <v>26</v>
+      </c>
+      <c r="P95" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>28</v>
+      </c>
+      <c r="R95" t="s">
+        <v>29</v>
+      </c>
+      <c r="S95" t="s">
+        <v>30</v>
+      </c>
+      <c r="T95" t="s">
+        <v>31</v>
+      </c>
+      <c r="U95" t="s">
+        <v>32</v>
+      </c>
+      <c r="V95" t="s">
+        <v>33</v>
+      </c>
+      <c r="W95" t="s">
+        <v>34</v>
+      </c>
+      <c r="X95" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE95" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF95" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG95" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH95" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI95" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ95" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>20</v>
+      </c>
+      <c r="C96">
+        <v>31548</v>
+      </c>
+      <c r="D96">
+        <v>31497</v>
+      </c>
+      <c r="E96">
+        <v>0.99838300000000002</v>
+      </c>
+      <c r="F96" s="1">
+        <v>47245500</v>
+      </c>
+      <c r="G96">
+        <v>23622.799999999999</v>
+      </c>
+      <c r="H96">
+        <v>280102</v>
+      </c>
+      <c r="I96">
+        <v>0.11244800000000001</v>
+      </c>
+      <c r="J96">
+        <v>31516</v>
+      </c>
+      <c r="K96">
+        <v>0.112516</v>
+      </c>
+      <c r="L96">
+        <v>0.99939699999999998</v>
+      </c>
+      <c r="M96">
+        <v>31567</v>
+      </c>
+      <c r="N96">
+        <v>0.99939800000000001</v>
+      </c>
+      <c r="O96">
+        <v>0.99778199999999995</v>
+      </c>
+      <c r="P96">
+        <v>1.00162</v>
+      </c>
+      <c r="Q96">
+        <v>635</v>
+      </c>
+      <c r="R96">
+        <v>635</v>
+      </c>
+      <c r="S96">
+        <v>1</v>
+      </c>
+      <c r="T96">
+        <v>2.0115899999999999E-2</v>
+      </c>
+      <c r="U96">
+        <v>2.01485E-2</v>
+      </c>
+      <c r="V96">
+        <v>0.466223</v>
+      </c>
+      <c r="W96">
+        <v>7.3421000000000001E-4</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96">
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <v>35</v>
+      </c>
+      <c r="AB96">
+        <v>51</v>
+      </c>
+      <c r="AC96">
+        <v>1.4571400000000001</v>
+      </c>
+      <c r="AD96">
+        <v>1.61561E-3</v>
+      </c>
+      <c r="AE96">
+        <v>1.61823E-3</v>
+      </c>
+      <c r="AF96">
+        <v>2.3040000000000001E-2</v>
+      </c>
+      <c r="AG96">
+        <v>4.5176500000000002E-4</v>
+      </c>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
+      </c>
+      <c r="AJ96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>40</v>
+      </c>
+      <c r="C97">
+        <v>20869</v>
+      </c>
+      <c r="D97">
+        <v>20779</v>
+      </c>
+      <c r="E97">
+        <v>0.99568699999999999</v>
+      </c>
+      <c r="F97" s="1">
+        <v>31168500</v>
+      </c>
+      <c r="G97">
+        <v>15584.3</v>
+      </c>
+      <c r="H97">
+        <v>559922</v>
+      </c>
+      <c r="I97">
+        <v>3.7110499999999998E-2</v>
+      </c>
+      <c r="J97">
+        <v>20818</v>
+      </c>
+      <c r="K97">
+        <v>3.7180199999999997E-2</v>
+      </c>
+      <c r="L97">
+        <v>0.99812699999999999</v>
+      </c>
+      <c r="M97">
+        <v>20908</v>
+      </c>
+      <c r="N97">
+        <v>0.99813499999999999</v>
+      </c>
+      <c r="O97">
+        <v>0.99382999999999999</v>
+      </c>
+      <c r="P97">
+        <v>1.0043200000000001</v>
+      </c>
+      <c r="Q97">
+        <v>668</v>
+      </c>
+      <c r="R97">
+        <v>668</v>
+      </c>
+      <c r="S97">
+        <v>1</v>
+      </c>
+      <c r="T97">
+        <v>3.1949499999999999E-2</v>
+      </c>
+      <c r="U97">
+        <v>3.2087600000000001E-2</v>
+      </c>
+      <c r="V97">
+        <v>0.48821500000000001</v>
+      </c>
+      <c r="W97">
+        <v>7.3086099999999997E-4</v>
+      </c>
+      <c r="X97">
+        <v>0</v>
+      </c>
+      <c r="Y97">
+        <v>0</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+      <c r="AA97">
+        <v>64</v>
+      </c>
+      <c r="AB97">
+        <v>90</v>
+      </c>
+      <c r="AC97">
+        <v>1.40625</v>
+      </c>
+      <c r="AD97">
+        <v>4.3045699999999998E-3</v>
+      </c>
+      <c r="AE97">
+        <v>4.3231800000000003E-3</v>
+      </c>
+      <c r="AF97">
+        <v>5.2224E-2</v>
+      </c>
+      <c r="AG97">
+        <v>5.8026699999999998E-4</v>
+      </c>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>0</v>
+      </c>
+      <c r="AJ97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>60</v>
+      </c>
+      <c r="C98">
+        <v>34819</v>
+      </c>
+      <c r="D98">
+        <v>34721</v>
+      </c>
+      <c r="E98">
+        <v>0.99718499999999999</v>
+      </c>
+      <c r="F98" s="1">
+        <v>52081500</v>
+      </c>
+      <c r="G98">
+        <v>26040.799999999999</v>
+      </c>
+      <c r="H98">
+        <v>839142</v>
+      </c>
+      <c r="I98">
+        <v>4.1376799999999998E-2</v>
+      </c>
+      <c r="J98">
+        <v>34779</v>
+      </c>
+      <c r="K98">
+        <v>4.1445900000000001E-2</v>
+      </c>
+      <c r="L98">
+        <v>0.998332</v>
+      </c>
+      <c r="M98">
+        <v>34877</v>
+      </c>
+      <c r="N98">
+        <v>0.99833700000000003</v>
+      </c>
+      <c r="O98">
+        <v>0.99552700000000005</v>
+      </c>
+      <c r="P98">
+        <v>1.00282</v>
+      </c>
+      <c r="Q98">
+        <v>1006</v>
+      </c>
+      <c r="R98">
+        <v>1006</v>
+      </c>
+      <c r="S98">
+        <v>1</v>
+      </c>
+      <c r="T98">
+        <v>2.88442E-2</v>
+      </c>
+      <c r="U98">
+        <v>2.89255E-2</v>
+      </c>
+      <c r="V98">
+        <v>0.72836599999999996</v>
+      </c>
+      <c r="W98">
+        <v>7.2402199999999995E-4</v>
+      </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
+      <c r="Y98">
+        <v>0</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <v>81</v>
+      </c>
+      <c r="AB98">
+        <v>98</v>
+      </c>
+      <c r="AC98">
+        <v>1.2098800000000001</v>
+      </c>
+      <c r="AD98">
+        <v>2.8098699999999999E-3</v>
+      </c>
+      <c r="AE98">
+        <v>2.8177900000000001E-3</v>
+      </c>
+      <c r="AF98">
+        <v>3.1744000000000001E-2</v>
+      </c>
+      <c r="AG98">
+        <v>3.2391800000000002E-4</v>
+      </c>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>0</v>
+      </c>
+      <c r="AJ98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>80</v>
+      </c>
+      <c r="C99">
+        <v>36128</v>
+      </c>
+      <c r="D99">
+        <v>36007</v>
+      </c>
+      <c r="E99">
+        <v>0.99665099999999995</v>
+      </c>
+      <c r="F99" s="1">
+        <v>54010500</v>
+      </c>
+      <c r="G99">
+        <v>27005.3</v>
+      </c>
+      <c r="H99">
+        <v>1120360</v>
+      </c>
+      <c r="I99">
+        <v>3.2138800000000002E-2</v>
+      </c>
+      <c r="J99">
+        <v>36085</v>
+      </c>
+      <c r="K99">
+        <v>3.2208399999999998E-2</v>
+      </c>
+      <c r="L99">
+        <v>0.997838</v>
+      </c>
+      <c r="M99">
+        <v>36206</v>
+      </c>
+      <c r="N99">
+        <v>0.99784600000000001</v>
+      </c>
+      <c r="O99">
+        <v>0.99450400000000005</v>
+      </c>
+      <c r="P99">
+        <v>1.00335</v>
+      </c>
+      <c r="Q99">
+        <v>1198</v>
+      </c>
+      <c r="R99">
+        <v>1198</v>
+      </c>
+      <c r="S99">
+        <v>1</v>
+      </c>
+      <c r="T99">
+        <v>3.3088399999999997E-2</v>
+      </c>
+      <c r="U99">
+        <v>3.3199399999999997E-2</v>
+      </c>
+      <c r="V99">
+        <v>0.88425200000000004</v>
+      </c>
+      <c r="W99">
+        <v>7.38107E-4</v>
+      </c>
+      <c r="X99">
+        <v>0</v>
+      </c>
+      <c r="Y99">
+        <v>0</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <v>115</v>
+      </c>
+      <c r="AB99">
+        <v>121</v>
+      </c>
+      <c r="AC99">
+        <v>1.05217</v>
+      </c>
+      <c r="AD99">
+        <v>3.34199E-3</v>
+      </c>
+      <c r="AE99">
+        <v>3.3531899999999998E-3</v>
+      </c>
+      <c r="AF99">
+        <v>2.8672E-2</v>
+      </c>
+      <c r="AG99">
+        <v>2.3695899999999999E-4</v>
+      </c>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>0</v>
+      </c>
+      <c r="AJ99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>100</v>
+      </c>
+      <c r="C100">
+        <v>32446</v>
+      </c>
+      <c r="D100">
+        <v>32269</v>
+      </c>
+      <c r="E100">
+        <v>0.99454500000000001</v>
+      </c>
+      <c r="F100" s="1">
+        <v>48403500</v>
+      </c>
+      <c r="G100">
+        <v>24201.8</v>
+      </c>
+      <c r="H100">
+        <v>1401123</v>
+      </c>
+      <c r="I100">
+        <v>2.3030800000000001E-2</v>
+      </c>
+      <c r="J100">
+        <v>32367</v>
+      </c>
+      <c r="K100">
+        <v>2.3100800000000001E-2</v>
+      </c>
+      <c r="L100">
+        <v>0.99697199999999997</v>
+      </c>
+      <c r="M100">
+        <v>32544</v>
+      </c>
+      <c r="N100">
+        <v>0.99698900000000001</v>
+      </c>
+      <c r="O100">
+        <v>0.99155000000000004</v>
+      </c>
+      <c r="P100">
+        <v>1.0054700000000001</v>
+      </c>
+      <c r="Q100">
+        <v>938</v>
+      </c>
+      <c r="R100">
+        <v>938</v>
+      </c>
+      <c r="S100">
+        <v>1</v>
+      </c>
+      <c r="T100">
+        <v>2.8822500000000001E-2</v>
+      </c>
+      <c r="U100">
+        <v>2.8980100000000002E-2</v>
+      </c>
+      <c r="V100">
+        <v>0.65902400000000005</v>
+      </c>
+      <c r="W100">
+        <v>7.0258500000000004E-4</v>
+      </c>
+      <c r="X100">
+        <v>0</v>
+      </c>
+      <c r="Y100">
+        <v>0</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+      <c r="AA100">
+        <v>133</v>
+      </c>
+      <c r="AB100">
+        <v>177</v>
+      </c>
+      <c r="AC100">
+        <v>1.33083</v>
+      </c>
+      <c r="AD100">
+        <v>5.4387899999999998E-3</v>
+      </c>
+      <c r="AE100">
+        <v>5.4685300000000001E-3</v>
+      </c>
+      <c r="AF100">
+        <v>8.6015999999999995E-2</v>
+      </c>
+      <c r="AG100">
+        <v>4.85966E-4</v>
+      </c>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>0</v>
+      </c>
+      <c r="AJ100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" t="s">
+        <v>6</v>
+      </c>
+      <c r="I102" t="s">
+        <v>7</v>
+      </c>
+      <c r="J102" t="s">
+        <v>8</v>
+      </c>
+      <c r="K102" t="s">
+        <v>9</v>
+      </c>
+      <c r="L102" t="s">
+        <v>10</v>
+      </c>
+      <c r="M102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>2000</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>20</v>
+      </c>
+      <c r="E103">
+        <v>100</v>
+      </c>
+      <c r="F103">
+        <v>20</v>
+      </c>
+      <c r="G103">
+        <v>10</v>
+      </c>
+      <c r="H103" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="I103">
+        <v>1500</v>
+      </c>
+      <c r="J103">
+        <v>10</v>
+      </c>
+      <c r="K103" s="1">
+        <v>200000000</v>
+      </c>
+      <c r="L103" t="s">
+        <v>12</v>
+      </c>
+      <c r="M103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" t="s">
+        <v>17</v>
+      </c>
+      <c r="G105" t="s">
+        <v>18</v>
+      </c>
+      <c r="H105" t="s">
+        <v>19</v>
+      </c>
+      <c r="I105" t="s">
+        <v>20</v>
+      </c>
+      <c r="J105" t="s">
+        <v>21</v>
+      </c>
+      <c r="K105" t="s">
+        <v>22</v>
+      </c>
+      <c r="L105" t="s">
+        <v>23</v>
+      </c>
+      <c r="M105" t="s">
+        <v>24</v>
+      </c>
+      <c r="N105" t="s">
+        <v>25</v>
+      </c>
+      <c r="O105" t="s">
+        <v>26</v>
+      </c>
+      <c r="P105" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>28</v>
+      </c>
+      <c r="R105" t="s">
+        <v>29</v>
+      </c>
+      <c r="S105" t="s">
+        <v>30</v>
+      </c>
+      <c r="T105" t="s">
+        <v>31</v>
+      </c>
+      <c r="U105" t="s">
+        <v>32</v>
+      </c>
+      <c r="V105" t="s">
+        <v>33</v>
+      </c>
+      <c r="W105" t="s">
+        <v>34</v>
+      </c>
+      <c r="X105" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC105" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD105" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE105" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF105" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG105" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH105" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI105" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ105" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="106" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>20</v>
+      </c>
+      <c r="C106">
+        <v>26471</v>
+      </c>
+      <c r="D106">
+        <v>26432</v>
+      </c>
+      <c r="E106">
+        <v>0.99852700000000005</v>
+      </c>
+      <c r="F106" s="1">
+        <v>39648000</v>
+      </c>
+      <c r="G106">
+        <v>19824</v>
+      </c>
+      <c r="H106">
+        <v>400551</v>
+      </c>
+      <c r="I106">
+        <v>6.5989099999999995E-2</v>
+      </c>
+      <c r="J106">
+        <v>26451</v>
+      </c>
+      <c r="K106">
+        <v>6.6036499999999998E-2</v>
+      </c>
+      <c r="L106">
+        <v>0.999282</v>
+      </c>
+      <c r="M106">
+        <v>26490</v>
+      </c>
+      <c r="N106">
+        <v>0.99928300000000003</v>
+      </c>
+      <c r="O106">
+        <v>0.99780999999999997</v>
+      </c>
+      <c r="P106">
+        <v>1.0014700000000001</v>
+      </c>
+      <c r="Q106">
+        <v>455</v>
+      </c>
+      <c r="R106">
+        <v>455</v>
+      </c>
+      <c r="S106">
+        <v>1</v>
+      </c>
+      <c r="T106">
+        <v>1.7176299999999999E-2</v>
+      </c>
+      <c r="U106">
+        <v>1.7201600000000001E-2</v>
+      </c>
+      <c r="V106">
+        <v>0.34317300000000001</v>
+      </c>
+      <c r="W106">
+        <v>7.54227E-4</v>
+      </c>
+      <c r="X106">
+        <v>0</v>
+      </c>
+      <c r="Y106">
+        <v>0</v>
+      </c>
+      <c r="Z106">
+        <v>0</v>
+      </c>
+      <c r="AA106">
+        <v>35</v>
+      </c>
+      <c r="AB106">
+        <v>39</v>
+      </c>
+      <c r="AC106">
+        <v>1.11429</v>
+      </c>
+      <c r="AD106">
+        <v>1.47225E-3</v>
+      </c>
+      <c r="AE106">
+        <v>1.4744199999999999E-3</v>
+      </c>
+      <c r="AF106">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="AG106">
+        <v>3.2820499999999998E-4</v>
+      </c>
+      <c r="AH106">
+        <v>0</v>
+      </c>
+      <c r="AI106">
+        <v>0</v>
+      </c>
+      <c r="AJ106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>40</v>
+      </c>
+      <c r="C107">
+        <v>43914</v>
+      </c>
+      <c r="D107">
+        <v>43841</v>
+      </c>
+      <c r="E107">
+        <v>0.99833799999999995</v>
+      </c>
+      <c r="F107" s="1">
+        <v>65761500</v>
+      </c>
+      <c r="G107">
+        <v>32880.800000000003</v>
+      </c>
+      <c r="H107">
+        <v>799726</v>
+      </c>
+      <c r="I107">
+        <v>5.4820000000000001E-2</v>
+      </c>
+      <c r="J107">
+        <v>43880</v>
+      </c>
+      <c r="K107">
+        <v>5.4868800000000002E-2</v>
+      </c>
+      <c r="L107">
+        <v>0.99911099999999997</v>
+      </c>
+      <c r="M107">
+        <v>43952</v>
+      </c>
+      <c r="N107">
+        <v>0.999135</v>
+      </c>
+      <c r="O107">
+        <v>0.997475</v>
+      </c>
+      <c r="P107">
+        <v>1.0016400000000001</v>
+      </c>
+      <c r="Q107">
+        <v>1225</v>
+      </c>
+      <c r="R107">
+        <v>1225</v>
+      </c>
+      <c r="S107">
+        <v>1</v>
+      </c>
+      <c r="T107">
+        <v>2.7871300000000002E-2</v>
+      </c>
+      <c r="U107">
+        <v>2.7917000000000001E-2</v>
+      </c>
+      <c r="V107">
+        <v>0.94544499999999998</v>
+      </c>
+      <c r="W107">
+        <v>7.7179199999999999E-4</v>
+      </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="Y107">
+        <v>0</v>
+      </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AA107">
+        <v>60</v>
+      </c>
+      <c r="AB107">
+        <v>72</v>
+      </c>
+      <c r="AC107">
+        <v>1.2</v>
+      </c>
+      <c r="AD107">
+        <v>1.6381499999999999E-3</v>
+      </c>
+      <c r="AE107">
+        <v>1.64084E-3</v>
+      </c>
+      <c r="AF107">
+        <v>2.6112E-2</v>
+      </c>
+      <c r="AG107">
+        <v>3.62667E-4</v>
+      </c>
+      <c r="AH107">
+        <v>0</v>
+      </c>
+      <c r="AI107">
+        <v>0</v>
+      </c>
+      <c r="AJ107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>60</v>
+      </c>
+      <c r="C108">
+        <v>24180</v>
+      </c>
+      <c r="D108">
+        <v>24076</v>
+      </c>
+      <c r="E108">
+        <v>0.995699</v>
+      </c>
+      <c r="F108" s="1">
+        <v>36114000</v>
+      </c>
+      <c r="G108">
+        <v>18057</v>
+      </c>
+      <c r="H108">
+        <v>1200095</v>
+      </c>
+      <c r="I108">
+        <v>2.0061699999999998E-2</v>
+      </c>
+      <c r="J108">
+        <v>24135</v>
+      </c>
+      <c r="K108">
+        <v>2.0110900000000001E-2</v>
+      </c>
+      <c r="L108">
+        <v>0.99755499999999997</v>
+      </c>
+      <c r="M108">
+        <v>24239</v>
+      </c>
+      <c r="N108">
+        <v>0.99756599999999995</v>
+      </c>
+      <c r="O108">
+        <v>0.99327500000000002</v>
+      </c>
+      <c r="P108">
+        <v>1.00431</v>
+      </c>
+      <c r="Q108">
+        <v>460</v>
+      </c>
+      <c r="R108">
+        <v>460</v>
+      </c>
+      <c r="S108">
+        <v>1</v>
+      </c>
+      <c r="T108">
+        <v>1.89777E-2</v>
+      </c>
+      <c r="U108">
+        <v>1.90595E-2</v>
+      </c>
+      <c r="V108">
+        <v>0.32271100000000003</v>
+      </c>
+      <c r="W108">
+        <v>7.0154500000000003E-4</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
+      <c r="Y108">
+        <v>0</v>
+      </c>
+      <c r="Z108">
+        <v>0</v>
+      </c>
+      <c r="AA108">
+        <v>87</v>
+      </c>
+      <c r="AB108">
+        <v>104</v>
+      </c>
+      <c r="AC108">
+        <v>1.1954</v>
+      </c>
+      <c r="AD108">
+        <v>4.2906100000000003E-3</v>
+      </c>
+      <c r="AE108">
+        <v>4.3090899999999998E-3</v>
+      </c>
+      <c r="AF108">
+        <v>3.5839999999999997E-2</v>
+      </c>
+      <c r="AG108">
+        <v>3.4461499999999999E-4</v>
+      </c>
+      <c r="AH108">
+        <v>0</v>
+      </c>
+      <c r="AI108">
+        <v>0</v>
+      </c>
+      <c r="AJ108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>80</v>
+      </c>
+      <c r="C109">
+        <v>23570</v>
+      </c>
+      <c r="D109">
+        <v>23432</v>
+      </c>
+      <c r="E109">
+        <v>0.99414499999999995</v>
+      </c>
+      <c r="F109" s="1">
+        <v>35148000</v>
+      </c>
+      <c r="G109">
+        <v>17574</v>
+      </c>
+      <c r="H109">
+        <v>1601326</v>
+      </c>
+      <c r="I109">
+        <v>1.4632900000000001E-2</v>
+      </c>
+      <c r="J109">
+        <v>23511</v>
+      </c>
+      <c r="K109">
+        <v>1.4682199999999999E-2</v>
+      </c>
+      <c r="L109">
+        <v>0.99663999999999997</v>
+      </c>
+      <c r="M109">
+        <v>23649</v>
+      </c>
+      <c r="N109">
+        <v>0.99665899999999996</v>
+      </c>
+      <c r="O109">
+        <v>0.99082400000000004</v>
+      </c>
+      <c r="P109">
+        <v>1.00587</v>
+      </c>
+      <c r="Q109">
+        <v>512</v>
+      </c>
+      <c r="R109">
+        <v>512</v>
+      </c>
+      <c r="S109">
+        <v>1</v>
+      </c>
+      <c r="T109">
+        <v>2.1649999999999999E-2</v>
+      </c>
+      <c r="U109">
+        <v>2.1777000000000001E-2</v>
+      </c>
+      <c r="V109">
+        <v>0.37003900000000001</v>
+      </c>
+      <c r="W109">
+        <v>7.2273300000000003E-4</v>
+      </c>
+      <c r="X109">
+        <v>0</v>
+      </c>
+      <c r="Y109">
+        <v>0</v>
+      </c>
+      <c r="Z109">
+        <v>0</v>
+      </c>
+      <c r="AA109">
+        <v>109</v>
+      </c>
+      <c r="AB109">
+        <v>138</v>
+      </c>
+      <c r="AC109">
+        <v>1.26606</v>
+      </c>
+      <c r="AD109">
+        <v>5.8353399999999996E-3</v>
+      </c>
+      <c r="AE109">
+        <v>5.8695900000000001E-3</v>
+      </c>
+      <c r="AF109">
+        <v>5.0175999999999998E-2</v>
+      </c>
+      <c r="AG109">
+        <v>3.6359400000000002E-4</v>
+      </c>
+      <c r="AH109">
+        <v>0</v>
+      </c>
+      <c r="AI109">
+        <v>0</v>
+      </c>
+      <c r="AJ109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>100</v>
+      </c>
+      <c r="C110">
+        <v>30872</v>
+      </c>
+      <c r="D110">
+        <v>30685</v>
+      </c>
+      <c r="E110">
+        <v>0.99394300000000002</v>
+      </c>
+      <c r="F110" s="1">
+        <v>46027500</v>
+      </c>
+      <c r="G110">
+        <v>23013.8</v>
+      </c>
+      <c r="H110">
+        <v>2000653</v>
+      </c>
+      <c r="I110">
+        <v>1.53375E-2</v>
+      </c>
+      <c r="J110">
+        <v>30784</v>
+      </c>
+      <c r="K110">
+        <v>1.5387E-2</v>
+      </c>
+      <c r="L110">
+        <v>0.996784</v>
+      </c>
+      <c r="M110">
+        <v>30971</v>
+      </c>
+      <c r="N110">
+        <v>0.99680299999999999</v>
+      </c>
+      <c r="O110">
+        <v>0.99076600000000004</v>
+      </c>
+      <c r="P110">
+        <v>1.00607</v>
+      </c>
+      <c r="Q110">
+        <v>826</v>
+      </c>
+      <c r="R110">
+        <v>826</v>
+      </c>
+      <c r="S110">
+        <v>1</v>
+      </c>
+      <c r="T110">
+        <v>2.6670099999999999E-2</v>
+      </c>
+      <c r="U110">
+        <v>2.6832100000000001E-2</v>
+      </c>
+      <c r="V110">
+        <v>0.59237700000000004</v>
+      </c>
+      <c r="W110">
+        <v>7.1716300000000005E-4</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110">
+        <v>0</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <v>143</v>
+      </c>
+      <c r="AB110">
+        <v>187</v>
+      </c>
+      <c r="AC110">
+        <v>1.30769</v>
+      </c>
+      <c r="AD110">
+        <v>6.0379099999999996E-3</v>
+      </c>
+      <c r="AE110">
+        <v>6.0745800000000004E-3</v>
+      </c>
+      <c r="AF110">
+        <v>8.3456000000000002E-2</v>
+      </c>
+      <c r="AG110">
+        <v>4.46289E-4</v>
+      </c>
+      <c r="AH110">
+        <v>0</v>
+      </c>
+      <c r="AI110">
+        <v>0</v>
+      </c>
+      <c r="AJ110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1</v>
+      </c>
+      <c r="D112" t="s">
+        <v>2</v>
+      </c>
+      <c r="E112" t="s">
+        <v>3</v>
+      </c>
+      <c r="F112" t="s">
+        <v>4</v>
+      </c>
+      <c r="G112" t="s">
+        <v>5</v>
+      </c>
+      <c r="H112" t="s">
+        <v>6</v>
+      </c>
+      <c r="I112" t="s">
+        <v>7</v>
+      </c>
+      <c r="J112" t="s">
+        <v>8</v>
+      </c>
+      <c r="K112" t="s">
+        <v>9</v>
+      </c>
+      <c r="L112" t="s">
+        <v>10</v>
+      </c>
+      <c r="M112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>2000</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>20</v>
+      </c>
+      <c r="E113">
+        <v>100</v>
+      </c>
+      <c r="F113">
+        <v>20</v>
+      </c>
+      <c r="G113">
+        <v>20</v>
+      </c>
+      <c r="H113" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="I113">
+        <v>1500</v>
+      </c>
+      <c r="J113">
+        <v>10</v>
+      </c>
+      <c r="K113" s="1">
+        <v>200000000</v>
+      </c>
+      <c r="L113" t="s">
+        <v>12</v>
+      </c>
+      <c r="M113">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" t="s">
+        <v>16</v>
+      </c>
+      <c r="F115" t="s">
+        <v>17</v>
+      </c>
+      <c r="G115" t="s">
+        <v>18</v>
+      </c>
+      <c r="H115" t="s">
+        <v>19</v>
+      </c>
+      <c r="I115" t="s">
+        <v>20</v>
+      </c>
+      <c r="J115" t="s">
+        <v>21</v>
+      </c>
+      <c r="K115" t="s">
+        <v>22</v>
+      </c>
+      <c r="L115" t="s">
+        <v>23</v>
+      </c>
+      <c r="M115" t="s">
+        <v>24</v>
+      </c>
+      <c r="N115" t="s">
+        <v>25</v>
+      </c>
+      <c r="O115" t="s">
+        <v>26</v>
+      </c>
+      <c r="P115" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>28</v>
+      </c>
+      <c r="R115" t="s">
+        <v>29</v>
+      </c>
+      <c r="S115" t="s">
+        <v>30</v>
+      </c>
+      <c r="T115" t="s">
+        <v>31</v>
+      </c>
+      <c r="U115" t="s">
+        <v>32</v>
+      </c>
+      <c r="V115" t="s">
+        <v>33</v>
+      </c>
+      <c r="W115" t="s">
+        <v>34</v>
+      </c>
+      <c r="X115" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA115" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB115" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC115" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD115" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE115" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF115" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG115" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH115" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI115" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ115" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="116" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>20</v>
+      </c>
+      <c r="C116">
+        <v>42528</v>
+      </c>
+      <c r="D116">
+        <v>42491</v>
+      </c>
+      <c r="E116">
+        <v>0.99912999999999996</v>
+      </c>
+      <c r="F116" s="1">
+        <v>63736500</v>
+      </c>
+      <c r="G116">
+        <v>31868.3</v>
+      </c>
+      <c r="H116">
+        <v>799949</v>
+      </c>
+      <c r="I116">
+        <v>5.31171E-2</v>
+      </c>
+      <c r="J116">
+        <v>42510</v>
+      </c>
+      <c r="K116">
+        <v>5.3140899999999998E-2</v>
+      </c>
+      <c r="L116">
+        <v>0.99955300000000002</v>
+      </c>
+      <c r="M116">
+        <v>42547</v>
+      </c>
+      <c r="N116">
+        <v>0.99955300000000002</v>
+      </c>
+      <c r="O116">
+        <v>0.99868400000000002</v>
+      </c>
+      <c r="P116">
+        <v>1.0008699999999999</v>
+      </c>
+      <c r="Q116">
+        <v>261</v>
+      </c>
+      <c r="R116">
+        <v>261</v>
+      </c>
+      <c r="S116">
+        <v>1</v>
+      </c>
+      <c r="T116">
+        <v>6.13439E-3</v>
+      </c>
+      <c r="U116">
+        <v>6.1397300000000004E-3</v>
+      </c>
+      <c r="V116">
+        <v>0.195077</v>
+      </c>
+      <c r="W116">
+        <v>7.4742099999999996E-4</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <v>0</v>
+      </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+      <c r="AA116">
+        <v>28</v>
+      </c>
+      <c r="AB116">
+        <v>37</v>
+      </c>
+      <c r="AC116">
+        <v>1.3214300000000001</v>
+      </c>
+      <c r="AD116">
+        <v>8.6962699999999999E-4</v>
+      </c>
+      <c r="AE116">
+        <v>8.7038299999999996E-4</v>
+      </c>
+      <c r="AF116">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="AG116">
+        <v>3.4594600000000002E-4</v>
+      </c>
+      <c r="AH116">
+        <v>0</v>
+      </c>
+      <c r="AI116">
+        <v>0</v>
+      </c>
+      <c r="AJ116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>40</v>
+      </c>
+      <c r="C117">
+        <v>41603</v>
+      </c>
+      <c r="D117">
+        <v>41525</v>
+      </c>
+      <c r="E117">
+        <v>0.99812500000000004</v>
+      </c>
+      <c r="F117" s="1">
+        <v>62287500</v>
+      </c>
+      <c r="G117">
+        <v>31143.8</v>
+      </c>
+      <c r="H117">
+        <v>1599483</v>
+      </c>
+      <c r="I117">
+        <v>2.5961499999999998E-2</v>
+      </c>
+      <c r="J117">
+        <v>41564</v>
+      </c>
+      <c r="K117">
+        <v>2.5985899999999999E-2</v>
+      </c>
+      <c r="L117">
+        <v>0.99906200000000001</v>
+      </c>
+      <c r="M117">
+        <v>41642</v>
+      </c>
+      <c r="N117">
+        <v>0.99906300000000003</v>
+      </c>
+      <c r="O117">
+        <v>0.99719000000000002</v>
+      </c>
+      <c r="P117">
+        <v>1.0018800000000001</v>
+      </c>
+      <c r="Q117">
+        <v>319</v>
+      </c>
+      <c r="R117">
+        <v>319</v>
+      </c>
+      <c r="S117">
+        <v>1</v>
+      </c>
+      <c r="T117">
+        <v>7.6605400000000004E-3</v>
+      </c>
+      <c r="U117">
+        <v>7.6749100000000001E-3</v>
+      </c>
+      <c r="V117">
+        <v>0.21931500000000001</v>
+      </c>
+      <c r="W117">
+        <v>6.8750699999999996E-4</v>
+      </c>
+      <c r="X117">
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <v>0</v>
+      </c>
+      <c r="Z117">
+        <v>0</v>
+      </c>
+      <c r="AA117">
+        <v>58</v>
+      </c>
+      <c r="AB117">
+        <v>78</v>
+      </c>
+      <c r="AC117">
+        <v>1.34483</v>
+      </c>
+      <c r="AD117">
+        <v>1.8731100000000001E-3</v>
+      </c>
+      <c r="AE117">
+        <v>1.8766200000000001E-3</v>
+      </c>
+      <c r="AF117">
+        <v>4.7615999999999999E-2</v>
+      </c>
+      <c r="AG117">
+        <v>6.1046199999999998E-4</v>
+      </c>
+      <c r="AH117">
+        <v>0</v>
+      </c>
+      <c r="AI117">
+        <v>0</v>
+      </c>
+      <c r="AJ117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>60</v>
+      </c>
+      <c r="C118">
+        <v>42481</v>
+      </c>
+      <c r="D118">
+        <v>42386</v>
+      </c>
+      <c r="E118">
+        <v>0.99776399999999998</v>
+      </c>
+      <c r="F118" s="1">
+        <v>63579000</v>
+      </c>
+      <c r="G118">
+        <v>31789.5</v>
+      </c>
+      <c r="H118">
+        <v>2402687</v>
+      </c>
+      <c r="I118">
+        <v>1.76411E-2</v>
+      </c>
+      <c r="J118">
+        <v>42445</v>
+      </c>
+      <c r="K118">
+        <v>1.76656E-2</v>
+      </c>
+      <c r="L118">
+        <v>0.99861</v>
+      </c>
+      <c r="M118">
+        <v>42540</v>
+      </c>
+      <c r="N118">
+        <v>0.99861299999999997</v>
+      </c>
+      <c r="O118">
+        <v>0.99638000000000004</v>
+      </c>
+      <c r="P118">
+        <v>1.00224</v>
+      </c>
+      <c r="Q118">
+        <v>402</v>
+      </c>
+      <c r="R118">
+        <v>402</v>
+      </c>
+      <c r="S118">
+        <v>1</v>
+      </c>
+      <c r="T118">
+        <v>9.4499300000000005E-3</v>
+      </c>
+      <c r="U118">
+        <v>9.4710799999999998E-3</v>
+      </c>
+      <c r="V118">
+        <v>0.28397499999999998</v>
+      </c>
+      <c r="W118">
+        <v>7.0640500000000001E-4</v>
+      </c>
+      <c r="X118">
+        <v>0</v>
+      </c>
+      <c r="Y118">
+        <v>0</v>
+      </c>
+      <c r="Z118">
+        <v>0</v>
+      </c>
+      <c r="AA118">
+        <v>78</v>
+      </c>
+      <c r="AB118">
+        <v>95</v>
+      </c>
+      <c r="AC118">
+        <v>1.2179500000000001</v>
+      </c>
+      <c r="AD118">
+        <v>2.2331899999999999E-3</v>
+      </c>
+      <c r="AE118">
+        <v>2.2381900000000001E-3</v>
+      </c>
+      <c r="AF118">
+        <v>3.6864000000000001E-2</v>
+      </c>
+      <c r="AG118">
+        <v>3.8804200000000001E-4</v>
+      </c>
+      <c r="AH118">
+        <v>0</v>
+      </c>
+      <c r="AI118">
+        <v>0</v>
+      </c>
+      <c r="AJ118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>80</v>
+      </c>
+      <c r="C119">
+        <v>43975</v>
+      </c>
+      <c r="D119">
+        <v>43851</v>
+      </c>
+      <c r="E119">
+        <v>0.99717999999999996</v>
+      </c>
+      <c r="F119" s="1">
+        <v>65776500</v>
+      </c>
+      <c r="G119">
+        <v>32888.300000000003</v>
+      </c>
+      <c r="H119">
+        <v>3200702</v>
+      </c>
+      <c r="I119">
+        <v>1.37004E-2</v>
+      </c>
+      <c r="J119">
+        <v>43930</v>
+      </c>
+      <c r="K119">
+        <v>1.37251E-2</v>
+      </c>
+      <c r="L119">
+        <v>0.99820200000000003</v>
+      </c>
+      <c r="M119">
+        <v>44054</v>
+      </c>
+      <c r="N119">
+        <v>0.99820699999999996</v>
+      </c>
+      <c r="O119">
+        <v>0.99539200000000005</v>
+      </c>
+      <c r="P119">
+        <v>1.00282</v>
+      </c>
+      <c r="Q119">
+        <v>652</v>
+      </c>
+      <c r="R119">
+        <v>652</v>
+      </c>
+      <c r="S119">
+        <v>1</v>
+      </c>
+      <c r="T119">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="U119">
+        <v>1.48418E-2</v>
+      </c>
+      <c r="V119">
+        <v>0.45807199999999998</v>
+      </c>
+      <c r="W119">
+        <v>7.0256500000000005E-4</v>
+      </c>
+      <c r="X119">
+        <v>0</v>
+      </c>
+      <c r="Y119">
+        <v>0</v>
+      </c>
+      <c r="Z119">
+        <v>0</v>
+      </c>
+      <c r="AA119">
+        <v>108</v>
+      </c>
+      <c r="AB119">
+        <v>124</v>
+      </c>
+      <c r="AC119">
+        <v>1.14815</v>
+      </c>
+      <c r="AD119">
+        <v>2.8147300000000001E-3</v>
+      </c>
+      <c r="AE119">
+        <v>2.8226700000000002E-3</v>
+      </c>
+      <c r="AF119">
+        <v>3.5839999999999997E-2</v>
+      </c>
+      <c r="AG119">
+        <v>2.8903199999999999E-4</v>
+      </c>
+      <c r="AH119">
+        <v>0</v>
+      </c>
+      <c r="AI119">
+        <v>0</v>
+      </c>
+      <c r="AJ119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>100</v>
+      </c>
+      <c r="C120">
+        <v>41230</v>
+      </c>
+      <c r="D120">
+        <v>41085</v>
+      </c>
+      <c r="E120">
+        <v>0.99648300000000001</v>
+      </c>
+      <c r="F120" s="1">
+        <v>61627500</v>
+      </c>
+      <c r="G120">
+        <v>30813.8</v>
+      </c>
+      <c r="H120">
+        <v>4000358</v>
+      </c>
+      <c r="I120">
+        <v>1.02703E-2</v>
+      </c>
+      <c r="J120">
+        <v>41184</v>
+      </c>
+      <c r="K120">
+        <v>1.02951E-2</v>
+      </c>
+      <c r="L120">
+        <v>0.99759600000000004</v>
+      </c>
+      <c r="M120">
+        <v>41329</v>
+      </c>
+      <c r="N120">
+        <v>0.99760499999999996</v>
+      </c>
+      <c r="O120">
+        <v>0.99409599999999998</v>
+      </c>
+      <c r="P120">
+        <v>1.00352</v>
+      </c>
+      <c r="Q120">
+        <v>352</v>
+      </c>
+      <c r="R120">
+        <v>352</v>
+      </c>
+      <c r="S120">
+        <v>1</v>
+      </c>
+      <c r="T120">
+        <v>8.5170200000000001E-3</v>
+      </c>
+      <c r="U120">
+        <v>8.5470100000000007E-3</v>
+      </c>
+      <c r="V120">
+        <v>0.23332700000000001</v>
+      </c>
+      <c r="W120">
+        <v>6.6286000000000003E-4</v>
+      </c>
+      <c r="X120">
+        <v>0</v>
+      </c>
+      <c r="Y120">
+        <v>0</v>
+      </c>
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AA120">
+        <v>126</v>
+      </c>
+      <c r="AB120">
+        <v>145</v>
+      </c>
+      <c r="AC120">
+        <v>1.15079</v>
+      </c>
+      <c r="AD120">
+        <v>3.5084299999999999E-3</v>
+      </c>
+      <c r="AE120">
+        <v>3.5207799999999998E-3</v>
+      </c>
+      <c r="AF120">
+        <v>4.8127999999999997E-2</v>
+      </c>
+      <c r="AG120">
+        <v>3.3191699999999999E-4</v>
+      </c>
+      <c r="AH120">
+        <v>0</v>
+      </c>
+      <c r="AI120">
+        <v>0</v>
+      </c>
+      <c r="AJ120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1</v>
+      </c>
+      <c r="D137" t="s">
+        <v>2</v>
+      </c>
+      <c r="E137" t="s">
+        <v>3</v>
+      </c>
+      <c r="F137" t="s">
+        <v>4</v>
+      </c>
+      <c r="G137" t="s">
+        <v>5</v>
+      </c>
+      <c r="H137" t="s">
+        <v>6</v>
+      </c>
+      <c r="I137" t="s">
+        <v>7</v>
+      </c>
+      <c r="J137" t="s">
+        <v>8</v>
+      </c>
+      <c r="K137" t="s">
+        <v>9</v>
+      </c>
+      <c r="L137" t="s">
+        <v>10</v>
+      </c>
+      <c r="M137" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>4000</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>20</v>
+      </c>
+      <c r="E138">
+        <v>100</v>
+      </c>
+      <c r="F138">
+        <v>20</v>
+      </c>
+      <c r="G138">
+        <v>7</v>
+      </c>
+      <c r="H138" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="I138">
+        <v>1500</v>
+      </c>
+      <c r="J138">
+        <v>10</v>
+      </c>
+      <c r="K138" s="1">
+        <v>200000000</v>
+      </c>
+      <c r="L138" t="s">
+        <v>12</v>
+      </c>
+      <c r="M138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140" t="s">
+        <v>15</v>
+      </c>
+      <c r="E140" t="s">
+        <v>16</v>
+      </c>
+      <c r="F140" t="s">
+        <v>17</v>
+      </c>
+      <c r="G140" t="s">
+        <v>18</v>
+      </c>
+      <c r="H140" t="s">
+        <v>19</v>
+      </c>
+      <c r="I140" t="s">
+        <v>20</v>
+      </c>
+      <c r="J140" t="s">
+        <v>21</v>
+      </c>
+      <c r="K140" t="s">
+        <v>22</v>
+      </c>
+      <c r="L140" t="s">
+        <v>23</v>
+      </c>
+      <c r="M140" t="s">
+        <v>24</v>
+      </c>
+      <c r="N140" t="s">
+        <v>25</v>
+      </c>
+      <c r="O140" t="s">
+        <v>26</v>
+      </c>
+      <c r="P140" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>28</v>
+      </c>
+      <c r="R140" t="s">
+        <v>29</v>
+      </c>
+      <c r="S140" t="s">
+        <v>30</v>
+      </c>
+      <c r="T140" t="s">
+        <v>31</v>
+      </c>
+      <c r="U140" t="s">
+        <v>32</v>
+      </c>
+      <c r="V140" t="s">
+        <v>33</v>
+      </c>
+      <c r="W140" t="s">
+        <v>34</v>
+      </c>
+      <c r="X140" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y140" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z140" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA140" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB140" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC140" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD140" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE140" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF140" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG140" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH140" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI140" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ140" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="141" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>20</v>
+      </c>
+      <c r="C141">
+        <v>61399</v>
+      </c>
+      <c r="D141">
+        <v>61351</v>
+      </c>
+      <c r="E141">
+        <v>0.99921800000000005</v>
+      </c>
+      <c r="F141" s="1">
+        <v>92026500</v>
+      </c>
+      <c r="G141">
+        <v>23006.6</v>
+      </c>
+      <c r="H141">
+        <v>559980</v>
+      </c>
+      <c r="I141">
+        <v>0.109559</v>
+      </c>
+      <c r="J141">
+        <v>61369</v>
+      </c>
+      <c r="K141">
+        <v>0.10959099999999999</v>
+      </c>
+      <c r="L141">
+        <v>0.99970700000000001</v>
+      </c>
+      <c r="M141">
+        <v>61417</v>
+      </c>
+      <c r="N141">
+        <v>0.99970700000000001</v>
+      </c>
+      <c r="O141">
+        <v>0.99892499999999995</v>
+      </c>
+      <c r="P141">
+        <v>1.00078</v>
+      </c>
+      <c r="Q141">
+        <v>1107</v>
+      </c>
+      <c r="R141">
+        <v>1107</v>
+      </c>
+      <c r="S141">
+        <v>1</v>
+      </c>
+      <c r="T141">
+        <v>1.80243E-2</v>
+      </c>
+      <c r="U141">
+        <v>1.80384E-2</v>
+      </c>
+      <c r="V141">
+        <v>0.82243999999999995</v>
+      </c>
+      <c r="W141">
+        <v>7.4294499999999996E-4</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+      <c r="Y141">
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <v>0</v>
+      </c>
+      <c r="AA141">
+        <v>30</v>
+      </c>
+      <c r="AB141">
+        <v>48</v>
+      </c>
+      <c r="AC141">
+        <v>1.6</v>
+      </c>
+      <c r="AD141">
+        <v>7.8154299999999999E-4</v>
+      </c>
+      <c r="AE141">
+        <v>7.8215399999999997E-4</v>
+      </c>
+      <c r="AF141">
+        <v>2.6112E-2</v>
+      </c>
+      <c r="AG141">
+        <v>5.44E-4</v>
+      </c>
+      <c r="AH141">
+        <v>0</v>
+      </c>
+      <c r="AI141">
+        <v>0</v>
+      </c>
+      <c r="AJ141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>40</v>
+      </c>
+      <c r="C142">
+        <v>63475</v>
+      </c>
+      <c r="D142">
+        <v>63402</v>
+      </c>
+      <c r="E142">
+        <v>0.99885000000000002</v>
+      </c>
+      <c r="F142" s="1">
+        <v>95103000</v>
+      </c>
+      <c r="G142">
+        <v>23775.8</v>
+      </c>
+      <c r="H142">
+        <v>1120829</v>
+      </c>
+      <c r="I142">
+        <v>5.6567100000000002E-2</v>
+      </c>
+      <c r="J142">
+        <v>63440</v>
+      </c>
+      <c r="K142">
+        <v>5.6600999999999999E-2</v>
+      </c>
+      <c r="L142">
+        <v>0.99940099999999998</v>
+      </c>
+      <c r="M142">
+        <v>63513</v>
+      </c>
+      <c r="N142">
+        <v>0.99940200000000001</v>
+      </c>
+      <c r="O142">
+        <v>0.99825200000000003</v>
+      </c>
+      <c r="P142">
+        <v>1.00115</v>
+      </c>
+      <c r="Q142">
+        <v>1265</v>
+      </c>
+      <c r="R142">
+        <v>1265</v>
+      </c>
+      <c r="S142">
+        <v>1</v>
+      </c>
+      <c r="T142">
+        <v>1.9917199999999999E-2</v>
+      </c>
+      <c r="U142">
+        <v>1.9940099999999999E-2</v>
+      </c>
+      <c r="V142">
+        <v>0.93632599999999999</v>
+      </c>
+      <c r="W142">
+        <v>7.4017899999999999E-4</v>
+      </c>
+      <c r="X142">
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <v>0</v>
+      </c>
+      <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AA142">
+        <v>59</v>
+      </c>
+      <c r="AB142">
+        <v>73</v>
+      </c>
+      <c r="AC142">
+        <v>1.23729</v>
+      </c>
+      <c r="AD142">
+        <v>1.14937E-3</v>
+      </c>
+      <c r="AE142">
+        <v>1.15069E-3</v>
+      </c>
+      <c r="AF142">
+        <v>2.7647999999999999E-2</v>
+      </c>
+      <c r="AG142">
+        <v>3.7874000000000002E-4</v>
+      </c>
+      <c r="AH142">
+        <v>0</v>
+      </c>
+      <c r="AI142">
+        <v>0</v>
+      </c>
+      <c r="AJ142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>60</v>
+      </c>
+      <c r="C143">
+        <v>42116</v>
+      </c>
+      <c r="D143">
+        <v>42004</v>
+      </c>
+      <c r="E143">
+        <v>0.99734100000000003</v>
+      </c>
+      <c r="F143" s="1">
+        <v>63006000</v>
+      </c>
+      <c r="G143">
+        <v>15751.5</v>
+      </c>
+      <c r="H143">
+        <v>1677546</v>
+      </c>
+      <c r="I143">
+        <v>2.5038999999999999E-2</v>
+      </c>
+      <c r="J143">
+        <v>42063</v>
+      </c>
+      <c r="K143">
+        <v>2.5074099999999998E-2</v>
+      </c>
+      <c r="L143">
+        <v>0.99859699999999996</v>
+      </c>
+      <c r="M143">
+        <v>42175</v>
+      </c>
+      <c r="N143">
+        <v>0.99860099999999996</v>
+      </c>
+      <c r="O143">
+        <v>0.99594499999999997</v>
+      </c>
+      <c r="P143">
+        <v>1.0026600000000001</v>
+      </c>
+      <c r="Q143">
+        <v>959</v>
+      </c>
+      <c r="R143">
+        <v>959</v>
+      </c>
+      <c r="S143">
+        <v>1</v>
+      </c>
+      <c r="T143">
+        <v>2.2738600000000001E-2</v>
+      </c>
+      <c r="U143">
+        <v>2.2799099999999999E-2</v>
+      </c>
+      <c r="V143">
+        <v>0.71690500000000001</v>
+      </c>
+      <c r="W143">
+        <v>7.4755500000000001E-4</v>
+      </c>
+      <c r="X143">
+        <v>0</v>
+      </c>
+      <c r="Y143">
+        <v>0</v>
+      </c>
+      <c r="Z143">
+        <v>0</v>
+      </c>
+      <c r="AA143">
+        <v>92</v>
+      </c>
+      <c r="AB143">
+        <v>112</v>
+      </c>
+      <c r="AC143">
+        <v>1.21739</v>
+      </c>
+      <c r="AD143">
+        <v>2.6556000000000001E-3</v>
+      </c>
+      <c r="AE143">
+        <v>2.6626699999999998E-3</v>
+      </c>
+      <c r="AF143">
+        <v>3.8912000000000002E-2</v>
+      </c>
+      <c r="AG143">
+        <v>3.4742900000000001E-4</v>
+      </c>
+      <c r="AH143">
+        <v>0</v>
+      </c>
+      <c r="AI143">
+        <v>0</v>
+      </c>
+      <c r="AJ143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>80</v>
+      </c>
+      <c r="C144">
+        <v>58227</v>
+      </c>
+      <c r="D144">
+        <v>58085</v>
+      </c>
+      <c r="E144">
+        <v>0.99756100000000003</v>
+      </c>
+      <c r="F144" s="1">
+        <v>87127500</v>
+      </c>
+      <c r="G144">
+        <v>21781.9</v>
+      </c>
+      <c r="H144">
+        <v>2238532</v>
+      </c>
+      <c r="I144">
+        <v>2.59478E-2</v>
+      </c>
+      <c r="J144">
+        <v>58163</v>
+      </c>
+      <c r="K144">
+        <v>2.5982700000000001E-2</v>
+      </c>
+      <c r="L144">
+        <v>0.99865899999999996</v>
+      </c>
+      <c r="M144">
+        <v>58305</v>
+      </c>
+      <c r="N144">
+        <v>0.99866200000000005</v>
+      </c>
+      <c r="O144">
+        <v>0.99622699999999997</v>
+      </c>
+      <c r="P144">
+        <v>1.00244</v>
+      </c>
+      <c r="Q144">
+        <v>1092</v>
+      </c>
+      <c r="R144">
+        <v>1092</v>
+      </c>
+      <c r="S144">
+        <v>1</v>
+      </c>
+      <c r="T144">
+        <v>1.8729099999999999E-2</v>
+      </c>
+      <c r="U144">
+        <v>1.8774800000000001E-2</v>
+      </c>
+      <c r="V144">
+        <v>0.80069400000000002</v>
+      </c>
+      <c r="W144">
+        <v>7.3323699999999997E-4</v>
+      </c>
+      <c r="X144">
+        <v>0</v>
+      </c>
+      <c r="Y144">
+        <v>0</v>
+      </c>
+      <c r="Z144">
+        <v>0</v>
+      </c>
+      <c r="AA144">
+        <v>108</v>
+      </c>
+      <c r="AB144">
+        <v>142</v>
+      </c>
+      <c r="AC144">
+        <v>1.31481</v>
+      </c>
+      <c r="AD144">
+        <v>2.4354699999999999E-3</v>
+      </c>
+      <c r="AE144">
+        <v>2.4414100000000002E-3</v>
+      </c>
+      <c r="AF144">
+        <v>5.6320000000000002E-2</v>
+      </c>
+      <c r="AG144">
+        <v>3.9661999999999998E-4</v>
+      </c>
+      <c r="AH144">
+        <v>0</v>
+      </c>
+      <c r="AI144">
+        <v>0</v>
+      </c>
+      <c r="AJ144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>100</v>
+      </c>
+      <c r="C145">
+        <v>40755</v>
+      </c>
+      <c r="D145">
+        <v>40582</v>
+      </c>
+      <c r="E145">
+        <v>0.99575499999999995</v>
+      </c>
+      <c r="F145" s="1">
+        <v>60873000</v>
+      </c>
+      <c r="G145">
+        <v>15218.3</v>
+      </c>
+      <c r="H145">
+        <v>2798884</v>
+      </c>
+      <c r="I145">
+        <v>1.4499400000000001E-2</v>
+      </c>
+      <c r="J145">
+        <v>40681</v>
+      </c>
+      <c r="K145">
+        <v>1.4534699999999999E-2</v>
+      </c>
+      <c r="L145">
+        <v>0.99756599999999995</v>
+      </c>
+      <c r="M145">
+        <v>40854</v>
+      </c>
+      <c r="N145">
+        <v>0.99757700000000005</v>
+      </c>
+      <c r="O145">
+        <v>0.99334199999999995</v>
+      </c>
+      <c r="P145">
+        <v>1.0042500000000001</v>
+      </c>
+      <c r="Q145">
+        <v>848</v>
+      </c>
+      <c r="R145">
+        <v>848</v>
+      </c>
+      <c r="S145">
+        <v>1</v>
+      </c>
+      <c r="T145">
+        <v>2.0756799999999999E-2</v>
+      </c>
+      <c r="U145">
+        <v>2.0845099999999998E-2</v>
+      </c>
+      <c r="V145">
+        <v>0.57814200000000004</v>
+      </c>
+      <c r="W145">
+        <v>6.8177199999999998E-4</v>
+      </c>
+      <c r="X145">
+        <v>0</v>
+      </c>
+      <c r="Y145">
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AA145">
+        <v>138</v>
+      </c>
+      <c r="AB145">
+        <v>173</v>
+      </c>
+      <c r="AC145">
+        <v>1.25362</v>
+      </c>
+      <c r="AD145">
+        <v>4.2345899999999999E-3</v>
+      </c>
+      <c r="AE145">
+        <v>4.2525999999999996E-3</v>
+      </c>
+      <c r="AF145">
+        <v>7.0655999999999997E-2</v>
+      </c>
+      <c r="AG145">
+        <v>4.0841599999999999E-4</v>
+      </c>
+      <c r="AH145">
+        <v>0</v>
+      </c>
+      <c r="AI145">
+        <v>0</v>
+      </c>
+      <c r="AJ145">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
